--- a/downloads/KB-Liste Brown Swiss.xlsx
+++ b/downloads/KB-Liste Brown Swiss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED73795C-1E9A-4552-AE6E-78C25469DBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB3D42-40CD-4FC1-83DB-2F14BF6418FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7B2FEED5-12E0-4430-B0C7-4D2EE0423BFD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>Brown Swiss SVKB</t>
   </si>
@@ -117,29 +117,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Calvin-ET</t>
-  </si>
-  <si>
-    <t>Nutzungsdauer, Becken, Euter, (Ringmelk)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Faith </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
-    <t>ZZ, Exterieur, Mastitisresistenz, BB, Inhalt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
@@ -149,9 +126,6 @@
     <t>OB</t>
   </si>
   <si>
-    <t>Inhalt, Geburt topp, ZZ, Persistenz</t>
-  </si>
-  <si>
     <t>ZZ, Nutzungsdauer, Exterieur, Eiweiss, BB</t>
   </si>
   <si>
@@ -263,20 +237,6 @@
     <t>BB, Inhalt, Exterieur, ZZ, fruchtbar</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Jansrud </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>Roboter, BB, fruchtbar, Eiweiss, Euter</t>
   </si>
   <si>
@@ -305,13 +265,40 @@
   </si>
   <si>
     <t>BBKasein, Inhalt, Nutzungsdauer</t>
+  </si>
+  <si>
+    <t>Heimo</t>
+  </si>
+  <si>
+    <t>BB, Geburten, ZZ, Mastitisres. (Sohn Hakon)</t>
+  </si>
+  <si>
+    <t>Baristo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS Op </t>
+  </si>
+  <si>
+    <t>Blüem, BB, Exterieur, Euter, Geburt</t>
+  </si>
+  <si>
+    <t>Bunin</t>
+  </si>
+  <si>
+    <t>Roboter, fruchtbar (---Geburt Töchter!)</t>
+  </si>
+  <si>
+    <t>Inhalt, Geburt top, ZZ, Persistenz</t>
+  </si>
+  <si>
+    <t>Jansrud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,13 +329,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -433,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -450,7 +430,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -466,18 +445,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -792,19 +768,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D16D8F-C432-497D-8544-61DA9ABD0E3E}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,27 +788,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
-      <c r="C1" s="23">
-        <v>44434</v>
+      <c r="C1" s="16">
+        <v>44519</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -843,9 +819,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -887,16 +863,16 @@
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>107</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>101</v>
       </c>
     </row>
@@ -919,654 +895,618 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6">
-        <v>105</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="3">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>105</v>
       </c>
       <c r="E10" s="3">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="3">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3">
-        <v>88</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="D15" s="6">
+        <v>103</v>
       </c>
       <c r="E15" s="3">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="9">
+        <v>84</v>
+      </c>
+      <c r="D16" s="8">
         <v>105</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="13">
-        <v>97</v>
+      <c r="A17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="8">
+        <v>101</v>
+      </c>
+      <c r="E17" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="13">
-        <v>101</v>
+      <c r="C18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="12">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="6">
-        <v>99</v>
-      </c>
-      <c r="E19" s="3">
-        <v>107</v>
+      <c r="C19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="12">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="9">
-        <v>102</v>
-      </c>
-      <c r="E21" s="10">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8">
+        <v>102</v>
+      </c>
+      <c r="E22" s="9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8">
         <v>92</v>
       </c>
-      <c r="E22" s="10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="E23" s="9">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="14">
-        <v>97</v>
-      </c>
-      <c r="E24" s="14">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="3">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13">
+        <v>97</v>
+      </c>
+      <c r="E25" s="13">
         <v>94</v>
-      </c>
-      <c r="E25" s="3">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="D26" s="3">
+        <v>94</v>
       </c>
       <c r="E26" s="3">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="13">
+        <v>74</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12">
         <v>106</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="13">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>92</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="8">
         <v>107</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="9">
         <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="6">
-        <v>101</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="6">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E33" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="3">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
+        <v>105</v>
       </c>
       <c r="E34" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3">
-        <v>96</v>
+        <v>25</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E36" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D37" s="3">
+        <v>96</v>
       </c>
       <c r="E37" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="3">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E38" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D39" s="3">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E39" s="3">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="14">
-        <v>97</v>
-      </c>
-      <c r="E40" s="14">
+        <v>56</v>
+      </c>
+      <c r="D40" s="3">
+        <v>100</v>
+      </c>
+      <c r="E40" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D41" s="13">
+        <v>97</v>
+      </c>
+      <c r="E41" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="12">
         <v>106</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="13">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="6" t="s">
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="3" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="10">
-        <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="16">
-        <v>97</v>
-      </c>
-      <c r="E47" s="14">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="17">
-        <v>106</v>
-      </c>
-      <c r="E48" s="14">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/KB-Liste Brown Swiss.xlsx
+++ b/downloads/KB-Liste Brown Swiss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB3D42-40CD-4FC1-83DB-2F14BF6418FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924358A6-6ED3-4943-94A5-8E1359109319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7B2FEED5-12E0-4430-B0C7-4D2EE0423BFD}"/>
   </bookViews>
@@ -449,11 +449,11 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -770,26 +770,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D16D8F-C432-497D-8544-61DA9ABD0E3E}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="16">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1034,7 +1034,7 @@
       <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="8">

--- a/downloads/KB-Liste Brown Swiss.xlsx
+++ b/downloads/KB-Liste Brown Swiss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924358A6-6ED3-4943-94A5-8E1359109319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC6C719-22DE-422A-BB75-B985B80C49AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7B2FEED5-12E0-4430-B0C7-4D2EE0423BFD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>Brown Swiss SVKB</t>
   </si>
@@ -126,9 +126,6 @@
     <t>OB</t>
   </si>
   <si>
-    <t>ZZ, Nutzungsdauer, Exterieur, Eiweiss, BB</t>
-  </si>
-  <si>
     <t>Inhalt, ZZ, Euter, fruchtbar, Geburt</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t xml:space="preserve">X-Barca </t>
   </si>
   <si>
-    <t>X-Bender-ET</t>
-  </si>
-  <si>
     <t xml:space="preserve">X-Blooming </t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>X-Budin</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Holdrio </t>
-  </si>
-  <si>
     <t>X-Noro SG-ET</t>
   </si>
   <si>
@@ -292,6 +283,18 @@
   </si>
   <si>
     <t>Jansrud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grauvieh </t>
+  </si>
+  <si>
+    <t>Heli</t>
+  </si>
+  <si>
+    <t>Grau</t>
+  </si>
+  <si>
+    <t>Natobb x Baskus; für Stutz Mathias</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -447,13 +450,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -768,19 +772,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D16D8F-C432-497D-8544-61DA9ABD0E3E}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,14 +793,14 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="16">
-        <v>44533</v>
+        <v>44575</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="10"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -895,13 +899,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3">
@@ -927,13 +931,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
@@ -995,13 +999,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6">
         <v>103</v>
@@ -1018,7 +1022,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8">
         <v>105</v>
@@ -1029,13 +1033,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>78</v>
+      <c r="C17" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="8">
         <v>101</v>
@@ -1046,13 +1050,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>27</v>
@@ -1063,13 +1067,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>23</v>
@@ -1080,13 +1084,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="6">
         <v>99</v>
@@ -1097,13 +1101,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>26</v>
@@ -1114,13 +1118,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8">
         <v>102</v>
@@ -1131,13 +1135,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="8">
         <v>92</v>
@@ -1148,7 +1152,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
@@ -1165,13 +1169,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="13">
         <v>97</v>
@@ -1182,13 +1186,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3">
         <v>94</v>
@@ -1199,13 +1203,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>26</v>
@@ -1216,13 +1220,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>27</v>
@@ -1233,13 +1237,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D29" s="12">
         <v>106</v>
@@ -1257,7 +1261,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>10</v>
@@ -1274,7 +1278,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>13</v>
@@ -1291,7 +1295,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>10</v>
@@ -1308,19 +1312,19 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="D34" s="3">
+        <v>100</v>
       </c>
       <c r="E34" s="3">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,38 +1332,38 @@
         <v>50</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E36" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -1368,27 +1372,27 @@
         <v>30</v>
       </c>
       <c r="D37" s="3">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E37" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="D38" s="3">
+        <v>100</v>
       </c>
       <c r="E38" s="3">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,16 +1400,16 @@
         <v>54</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="3">
-        <v>78</v>
-      </c>
-      <c r="E39" s="3">
-        <v>103</v>
+        <v>73</v>
+      </c>
+      <c r="D39" s="13">
+        <v>97</v>
+      </c>
+      <c r="E39" s="13">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,100 +1417,99 @@
         <v>55</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="12">
+        <v>106</v>
+      </c>
+      <c r="E40" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="3">
-        <v>100</v>
-      </c>
-      <c r="E40" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="13">
-        <v>97</v>
-      </c>
-      <c r="E41" s="13">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="12">
-        <v>106</v>
-      </c>
-      <c r="E42" s="13">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="D43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>26</v>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
